--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.8343319999999999</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H2">
-        <v>2.502996</v>
+        <v>0.671849</v>
       </c>
       <c r="I2">
-        <v>0.7235598159154505</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="J2">
-        <v>0.7235598159154506</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N2">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q2">
-        <v>21.79646406117866</v>
+        <v>5.543969251591555</v>
       </c>
       <c r="R2">
-        <v>196.1681765506079</v>
+        <v>49.895723264324</v>
       </c>
       <c r="S2">
-        <v>0.523774904657756</v>
+        <v>0.331047385157673</v>
       </c>
       <c r="T2">
-        <v>0.523774904657756</v>
+        <v>0.331047385157673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.8343319999999999</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H3">
-        <v>2.502996</v>
+        <v>0.671849</v>
       </c>
       <c r="I3">
-        <v>0.7235598159154505</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="J3">
-        <v>0.7235598159154506</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N3">
         <v>11.455626</v>
       </c>
       <c r="O3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q3">
-        <v>3.185931783944</v>
+        <v>0.8551612080526668</v>
       </c>
       <c r="R3">
-        <v>28.673386055496</v>
+        <v>7.696450872474001</v>
       </c>
       <c r="S3">
-        <v>0.07655879924824587</v>
+        <v>0.05106429508656465</v>
       </c>
       <c r="T3">
-        <v>0.07655879924824588</v>
+        <v>0.05106429508656464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.8343319999999999</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H4">
-        <v>2.502996</v>
+        <v>0.671849</v>
       </c>
       <c r="I4">
-        <v>0.7235598159154505</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="J4">
-        <v>0.7235598159154506</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N4">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q4">
-        <v>5.127953817427999</v>
+        <v>0.7429315199986667</v>
       </c>
       <c r="R4">
-        <v>46.15158435685199</v>
+        <v>6.686383679988</v>
       </c>
       <c r="S4">
-        <v>0.1232261120094487</v>
+        <v>0.04436271665398727</v>
       </c>
       <c r="T4">
-        <v>0.1232261120094488</v>
+        <v>0.04436271665398727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.630374</v>
       </c>
       <c r="I5">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="J5">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N5">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q5">
-        <v>5.489391208016888</v>
+        <v>5.201725496358222</v>
       </c>
       <c r="R5">
-        <v>49.40452087215199</v>
+        <v>46.815529467224</v>
       </c>
       <c r="S5">
-        <v>0.1319115498980934</v>
+        <v>0.3106109622420855</v>
       </c>
       <c r="T5">
-        <v>0.1319115498980935</v>
+        <v>0.3106109622420855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.630374</v>
       </c>
       <c r="I6">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="J6">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N6">
         <v>11.455626</v>
       </c>
       <c r="O6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q6">
-        <v>0.8023698649026668</v>
+        <v>0.8023698649026667</v>
       </c>
       <c r="R6">
-        <v>7.221328784124001</v>
+        <v>7.221328784124</v>
       </c>
       <c r="S6">
-        <v>0.01928116405991609</v>
+        <v>0.04791196228750522</v>
       </c>
       <c r="T6">
-        <v>0.0192811640599161</v>
+        <v>0.04791196228750522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.630374</v>
       </c>
       <c r="I7">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="J7">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N7">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q7">
-        <v>1.291463813648667</v>
+        <v>0.6970684096986666</v>
       </c>
       <c r="R7">
-        <v>11.623174322838</v>
+        <v>6.273615687287999</v>
       </c>
       <c r="S7">
-        <v>0.03103422343936796</v>
+        <v>0.04162408985953773</v>
       </c>
       <c r="T7">
-        <v>0.03103422343936797</v>
+        <v>0.04162408985953774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1086366666666667</v>
+        <v>0.09104433333333334</v>
       </c>
       <c r="H8">
-        <v>0.32591</v>
+        <v>0.273133</v>
       </c>
       <c r="I8">
-        <v>0.09421324668717189</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="J8">
-        <v>0.09421324668717192</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N8">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q8">
-        <v>2.838073094075555</v>
+        <v>2.253841195856444</v>
       </c>
       <c r="R8">
-        <v>25.54265784668</v>
+        <v>20.284570762708</v>
       </c>
       <c r="S8">
-        <v>0.06819966119682543</v>
+        <v>0.134583761306887</v>
       </c>
       <c r="T8">
-        <v>0.06819966119682545</v>
+        <v>0.134583761306887</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1086366666666667</v>
+        <v>0.09104433333333334</v>
       </c>
       <c r="H9">
-        <v>0.32591</v>
+        <v>0.273133</v>
       </c>
       <c r="I9">
-        <v>0.09421324668717189</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="J9">
-        <v>0.09421324668717192</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N9">
         <v>11.455626</v>
       </c>
       <c r="O9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q9">
-        <v>0.4148336744066667</v>
+        <v>0.3476566106953334</v>
       </c>
       <c r="R9">
-        <v>3.733503069660001</v>
+        <v>3.128909496258</v>
       </c>
       <c r="S9">
-        <v>0.009968564976929972</v>
+        <v>0.02075964109476781</v>
       </c>
       <c r="T9">
-        <v>0.009968564976929975</v>
+        <v>0.02075964109476781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1086366666666667</v>
+        <v>0.09104433333333334</v>
       </c>
       <c r="H10">
-        <v>0.32591</v>
+        <v>0.273133</v>
       </c>
       <c r="I10">
-        <v>0.09421324668717189</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="J10">
-        <v>0.09421324668717192</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N10">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q10">
-        <v>0.6677003992966666</v>
+        <v>0.3020308355773333</v>
       </c>
       <c r="R10">
-        <v>6.009303593669999</v>
+        <v>2.718277520196</v>
       </c>
       <c r="S10">
-        <v>0.0160450205134165</v>
+        <v>0.01803518631099176</v>
       </c>
       <c r="T10">
-        <v>0.0160450205134165</v>
+        <v>0.01803518631099176</v>
       </c>
     </row>
   </sheetData>
